--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="1320" windowWidth="26980" windowHeight="22140" tabRatio="910"/>
+    <workbookView xWindow="9340" yWindow="0" windowWidth="26980" windowHeight="22140" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="258">
   <si>
     <t>名前</t>
   </si>
@@ -1095,6 +1095,48 @@
   </si>
   <si>
     <t>ItemRubyStoredScript.torch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の兜</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カブト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/armor/10021.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加されたデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 10020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除されたデータ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力が5から6に変更されたデータ</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,8 +1279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3971">
+  <cellStyleXfs count="3973">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5233,7 +5277,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3971">
+  <cellStyles count="3973">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7219,6 +7263,7 @@
     <cellStyle name="ハイパーリンク" xfId="3965" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3967" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9205,6 +9250,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3966" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3968" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9214,6 +9260,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="482600"/>
+          <a:ext cx="3594100" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マスタはほぼ静的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なデータなので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AppSeed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更して、マイグレーションを実行すると反映されます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9538,10 +9692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10100,16 +10254,18 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2">
-        <v>10020</v>
+      <c r="A37" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>114</v>
@@ -10124,12 +10280,36 @@
       <c r="F37" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>10021</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="17">
+        <v>15</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="1320" windowWidth="26980" windowHeight="22140" tabRatio="910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -413,12 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000002</t>
-  </si>
-  <si>
-    <t>fontana:1000003</t>
-  </si>
-  <si>
     <t>Rubyスクリプト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1096,6 +1090,12 @@
   <si>
     <t>ItemRubyStoredScript.torch</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>1000003</t>
   </si>
 </sst>
 </file>
@@ -5210,7 +5210,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5232,6 +5232,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3971">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -9540,7 +9541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -9606,7 +9607,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9687,15 +9688,15 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -9723,25 +9724,25 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9749,17 +9750,17 @@
         <v>10001</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -9768,17 +9769,17 @@
         <v>10002</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="17">
         <v>4</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -9787,17 +9788,17 @@
         <v>10003</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="17">
         <v>10</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -9806,17 +9807,17 @@
         <v>10004</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="17">
         <v>15</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -9825,17 +9826,17 @@
         <v>10005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="17">
         <v>20</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -9844,17 +9845,17 @@
         <v>10006</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="17">
         <v>28</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -9863,17 +9864,17 @@
         <v>10007</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="17">
         <v>40</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -9882,7 +9883,7 @@
         <v>10008</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>56</v>
@@ -9892,7 +9893,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -9901,7 +9902,7 @@
         <v>10009</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>56</v>
@@ -9911,7 +9912,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -9920,7 +9921,7 @@
         <v>10010</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>56</v>
@@ -9930,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -9939,7 +9940,7 @@
         <v>10011</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>56</v>
@@ -9949,7 +9950,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -9958,7 +9959,7 @@
         <v>10012</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>56</v>
@@ -9968,7 +9969,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -9977,7 +9978,7 @@
         <v>10013</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>56</v>
@@ -9987,7 +9988,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -9996,7 +9997,7 @@
         <v>10014</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>56</v>
@@ -10006,10 +10007,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10017,7 +10018,7 @@
         <v>10015</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>57</v>
@@ -10027,7 +10028,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -10036,7 +10037,7 @@
         <v>10016</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>57</v>
@@ -10046,7 +10047,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -10055,7 +10056,7 @@
         <v>10017</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>57</v>
@@ -10065,7 +10066,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -10074,17 +10075,17 @@
         <v>10018</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="17">
         <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -10093,17 +10094,17 @@
         <v>10019</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="17">
         <v>5</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -10112,17 +10113,17 @@
         <v>10020</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="17">
         <v>10</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G37" s="17"/>
     </row>
@@ -10205,12 +10206,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10247,7 +10248,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -10274,15 +10275,15 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -10293,7 +10294,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>0</v>
@@ -10302,13 +10303,13 @@
         <v>70</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10316,19 +10317,19 @@
         <v>20001</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10336,19 +10337,19 @@
         <v>20002</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10356,19 +10357,19 @@
         <v>20003</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10376,19 +10377,19 @@
         <v>20004</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10396,19 +10397,19 @@
         <v>20005</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10416,19 +10417,19 @@
         <v>20006</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10436,19 +10437,19 @@
         <v>20007</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10456,19 +10457,19 @@
         <v>20008</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10476,17 +10477,17 @@
         <v>20009</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10494,17 +10495,17 @@
         <v>20010</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10512,14 +10513,14 @@
         <v>20011</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26" s="17"/>
     </row>
@@ -10528,17 +10529,17 @@
         <v>20012</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -10573,7 +10574,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10589,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10597,7 +10598,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10607,7 +10608,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10622,12 +10623,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10637,7 +10638,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -10645,7 +10646,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -10668,12 +10669,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -10684,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10692,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10700,7 +10701,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10708,7 +10709,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10716,7 +10717,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10724,7 +10725,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10732,7 +10733,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10740,7 +10741,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10748,7 +10749,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10817,7 +10818,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10827,7 +10828,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10842,12 +10843,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10857,7 +10858,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -10888,12 +10889,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -10904,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10912,7 +10913,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10920,7 +10921,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10928,7 +10929,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10936,7 +10937,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10944,7 +10945,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -10974,7 +10975,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10989,7 +10990,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11002,10 +11003,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11013,7 +11014,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11023,7 +11024,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -11038,12 +11039,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11053,13 +11054,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -11069,7 +11070,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11087,13 +11088,13 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -11103,13 +11104,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11119,7 +11120,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11141,12 +11142,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11155,18 +11156,18 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>78</v>
+      <c r="A17" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11175,7 +11176,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -11186,8 +11187,8 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>79</v>
+      <c r="A18" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11196,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -11206,8 +11207,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
+      <c r="A19" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11216,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -11226,8 +11227,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
+      <c r="A20" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11236,7 +11237,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
@@ -11277,8 +11278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -11293,7 +11294,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11306,10 +11307,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11317,7 +11318,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11327,7 +11328,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11342,12 +11343,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11357,7 +11358,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11373,7 +11374,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11391,29 +11392,29 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11423,7 +11424,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11445,12 +11446,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11459,18 +11460,18 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>78</v>
+      <c r="A17" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11479,7 +11480,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -11489,8 +11490,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>79</v>
+      <c r="A18" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11499,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -11509,8 +11510,8 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
+      <c r="A19" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11519,7 +11520,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -11529,8 +11530,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
+      <c r="A20" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11539,7 +11540,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -11690,7 +11691,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -11706,7 +11707,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -11714,7 +11715,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -11722,7 +11723,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -11730,17 +11731,17 @@
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
   <si>
     <t>名前</t>
   </si>
@@ -1096,6 +1096,56 @@
   </si>
   <si>
     <t>1000003</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーアイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <rPh sb="0" eb="3">
+      <t>ショウモウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1237,8 +1287,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3971">
+  <cellStyleXfs count="3975">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5234,7 +5288,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3971">
+  <cellStyles count="3975">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7220,6 +7274,8 @@
     <cellStyle name="ハイパーリンク" xfId="3965" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3967" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9206,6 +9262,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3966" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3968" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10141,26 +10199,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -10168,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -10176,7 +10236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -10184,12 +10244,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -10209,7 +10269,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -10227,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -10243,302 +10303,355 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>20001</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>20002</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
         <v>20003</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
         <v>20004</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
         <v>20005</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
         <v>20006</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
         <v>20007</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
         <v>20008</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
         <v>20009</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
         <v>20010</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G26" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
         <v>20011</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
         <v>20012</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B28" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11278,7 +11391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="271">
   <si>
     <t>名前</t>
   </si>
@@ -1144,6 +1144,82 @@
     <t>消耗品</t>
     <rPh sb="0" eb="3">
       <t>ショウモウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖水</t>
+    <rPh sb="0" eb="2">
+      <t>セイスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草</t>
+    <rPh sb="0" eb="2">
+      <t>ドクケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草X</t>
+    <rPh sb="0" eb="2">
+      <t>ドクケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス回復</t>
+  </si>
+  <si>
+    <t>ステータス回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target": "hp", "percent": false, "value": 0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20013.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20014.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20015.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神の加護を得る</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒を無効化する</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ムコウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1155,7 +1231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1209,6 +1285,13 @@
       <color theme="1"/>
       <name val="Hiragino Kaku Gothic Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic Pro"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1287,7 +1370,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3975">
+  <cellStyleXfs count="3989">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5263,8 +5346,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5287,8 +5384,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3975">
+  <cellStyles count="3989">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7276,6 +7374,13 @@
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3975" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3977" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3979" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3981" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3983" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3985" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9264,6 +9369,13 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3976" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3978" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3980" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3982" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3984" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3986" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10199,10 +10311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10653,6 +10765,75 @@
       </c>
       <c r="G28" s="17" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>20013</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>20014</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>20015</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -557,16 +557,10 @@
     <t>HP + 30</t>
   </si>
   <si>
-    <t>ポーションA</t>
-  </si>
-  <si>
     <t>HP + 100</t>
   </si>
   <si>
     <t>最大HPの70%分が回復</t>
-  </si>
-  <si>
-    <t>ポーションXXX</t>
   </si>
   <si>
     <t>HPが最大HPまで回復</t>
@@ -1221,6 +1215,14 @@
     <rPh sb="2" eb="5">
       <t>ムコウカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションXX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9777,7 +9779,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9858,15 +9860,15 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -9909,7 +9911,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>88</v>
@@ -9930,7 +9932,7 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -9949,7 +9951,7 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -9968,7 +9970,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -9987,7 +9989,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -10006,7 +10008,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -10025,7 +10027,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -10044,7 +10046,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -10063,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -10082,7 +10084,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -10101,7 +10103,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -10120,7 +10122,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -10139,7 +10141,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -10158,7 +10160,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -10177,7 +10179,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>105</v>
@@ -10198,7 +10200,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -10217,7 +10219,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -10236,7 +10238,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -10255,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -10274,7 +10276,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -10293,7 +10295,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G37" s="17"/>
     </row>
@@ -10314,7 +10316,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10378,12 +10380,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10417,15 +10419,15 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -10461,15 +10463,15 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -10486,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>70</v>
@@ -10495,7 +10497,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>88</v>
@@ -10509,16 +10511,16 @@
         <v>115</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>116</v>
@@ -10529,22 +10531,22 @@
         <v>20002</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10552,22 +10554,22 @@
         <v>20003</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10575,22 +10577,22 @@
         <v>20004</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10598,22 +10600,22 @@
         <v>20005</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10621,22 +10623,22 @@
         <v>20006</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10644,22 +10646,22 @@
         <v>20007</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10667,22 +10669,22 @@
         <v>20008</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10690,20 +10692,20 @@
         <v>20009</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10711,20 +10713,20 @@
         <v>20010</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10732,17 +10734,17 @@
         <v>20011</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -10751,20 +10753,20 @@
         <v>20012</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10772,22 +10774,22 @@
         <v>20013</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>265</v>
-      </c>
       <c r="F29" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10795,22 +10797,22 @@
         <v>20014</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E30" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>267</v>
-      </c>
       <c r="G30" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10818,22 +10820,22 @@
         <v>20015</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="D31" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10868,7 +10870,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10884,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10902,7 +10904,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10917,12 +10919,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10940,7 +10942,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -10963,7 +10965,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10987,7 +10989,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10995,7 +10997,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11003,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11011,7 +11013,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11019,7 +11021,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11027,7 +11029,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11035,7 +11037,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11043,7 +11045,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11104,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11112,7 +11114,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11122,7 +11124,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11137,12 +11139,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -11152,7 +11154,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -11183,12 +11185,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -11199,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11207,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11215,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11223,7 +11225,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11231,7 +11233,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11239,7 +11241,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -11284,7 +11286,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11297,10 +11299,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11318,7 +11320,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -11333,12 +11335,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11348,13 +11350,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -11364,7 +11366,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11382,13 +11384,13 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -11398,13 +11400,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11436,12 +11438,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11450,10 +11452,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11461,7 +11463,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11470,7 +11472,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -11482,7 +11484,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11491,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -11502,7 +11504,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11511,7 +11513,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -11522,7 +11524,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11531,7 +11533,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
@@ -11588,7 +11590,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11601,10 +11603,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11612,7 +11614,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11622,7 +11624,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11637,12 +11639,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11652,7 +11654,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11668,7 +11670,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11686,29 +11688,29 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11718,7 +11720,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11740,12 +11742,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11754,10 +11756,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11765,7 +11767,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11774,7 +11776,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -11785,7 +11787,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11794,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -11805,7 +11807,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11814,7 +11816,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -11825,7 +11827,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11834,7 +11836,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -11985,7 +11987,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -12001,7 +12003,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -12009,7 +12011,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -12017,7 +12019,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -12030,7 +12032,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="269">
   <si>
     <t>名前</t>
   </si>
@@ -1159,16 +1159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毒消し草X</t>
-    <rPh sb="0" eb="2">
-      <t>ドクケ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステータス回復</t>
   </si>
   <si>
@@ -1188,10 +1178,6 @@
   </si>
   <si>
     <t>assets/item/20014.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>assets/item/20015.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10313,10 +10299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10531,7 +10517,7 @@
         <v>20002</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>253</v>
@@ -10577,7 +10563,7 @@
         <v>20004</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>253</v>
@@ -10777,19 +10763,19 @@
         <v>258</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>243</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="G29" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10800,42 +10786,19 @@
         <v>259</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>243</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
-        <v>20015</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -10302,7 +10302,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="271">
   <si>
     <t>名前</t>
   </si>
@@ -1209,6 +1209,14 @@
   </si>
   <si>
     <t>ポーションXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.recovery_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"status_cd":"1001"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10302,7 +10310,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10789,10 +10797,10 @@
         <v>261</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>264</v>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1212,11 +1212,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ItemRubyStoredScript.recovery_status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{"status_cd":"1001"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatusRubyStoredScript.recovery_status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10310,7 +10310,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10797,10 +10797,10 @@
         <v>261</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>264</v>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="5"/>
+    <workbookView xWindow="16580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
   <si>
     <t>名前</t>
   </si>
@@ -1096,6 +1096,17 @@
   </si>
   <si>
     <t>1000003</t>
+  </si>
+  <si>
+    <t>ダウンロード可</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1237,8 +1248,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3971">
+  <cellStyleXfs count="3975">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5234,7 +5249,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3971">
+  <cellStyles count="3975">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7220,6 +7235,8 @@
     <cellStyle name="ハイパーリンク" xfId="3965" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3967" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9206,6 +9223,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3966" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3968" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9539,10 +9558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9585,94 +9604,86 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -9682,303 +9693,300 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="17">
-        <v>2</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="17">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="17">
-        <v>2</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D25" s="17">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>56</v>
@@ -9988,144 +9996,163 @@
         <v>24</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>105</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="17">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="17">
+        <v>5</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>10020</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="17">
         <v>10</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F38" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G38" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10143,7 +10170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -11278,7 +11307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="255">
   <si>
     <t>名前</t>
   </si>
@@ -1106,6 +1106,13 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10168,10 +10175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10213,361 +10220,369 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
-        <v>70</v>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>20001</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="E24" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>20012</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="257">
   <si>
     <t>名前</t>
   </si>
@@ -1112,6 +1112,17 @@
     <t>可能</t>
     <rPh sb="0" eb="2">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1255,8 +1266,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3975">
+  <cellStyleXfs count="3983">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5256,7 +5275,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3975">
+  <cellStyles count="3983">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7244,6 +7263,10 @@
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3975" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3977" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3979" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3981" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9232,6 +9255,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3976" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3978" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3980" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3982" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10175,10 +10202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10289,300 +10316,314 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>20001</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="E25" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>20012</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="263">
   <si>
     <t>名前</t>
   </si>
@@ -1123,6 +1123,45 @@
     <t>アイテム種別</t>
     <rPh sb="4" eb="6">
       <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーアイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <rPh sb="0" eb="3">
+      <t>ショウモウヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1266,8 +1305,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3983">
+  <cellStyleXfs count="3989">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5275,7 +5320,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3983">
+  <cellStyles count="3989">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7267,6 +7312,9 @@
     <cellStyle name="ハイパーリンク" xfId="3977" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3979" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3981" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3983" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3985" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9259,6 +9307,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3978" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3980" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3982" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3984" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3986" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10202,17 +10253,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
@@ -10377,7 +10428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
@@ -10385,19 +10436,22 @@
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>20001</v>
       </c>
@@ -10405,19 +10459,22 @@
         <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>20002</v>
       </c>
@@ -10425,19 +10482,22 @@
         <v>117</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>20003</v>
       </c>
@@ -10445,19 +10505,22 @@
         <v>136</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>20004</v>
       </c>
@@ -10465,19 +10528,22 @@
         <v>120</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>20005</v>
       </c>
@@ -10485,19 +10551,22 @@
         <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>20006</v>
       </c>
@@ -10505,19 +10574,22 @@
         <v>124</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>20007</v>
       </c>
@@ -10525,19 +10597,22 @@
         <v>126</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>20008</v>
       </c>
@@ -10545,19 +10620,22 @@
         <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>20009</v>
       </c>
@@ -10565,17 +10643,20 @@
         <v>130</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="G26" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>20010</v>
       </c>
@@ -10583,17 +10664,20 @@
         <v>131</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>20011</v>
       </c>
@@ -10601,15 +10685,18 @@
         <v>133</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>20012</v>
       </c>
@@ -10617,13 +10704,16 @@
         <v>134</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="277">
   <si>
     <t>名前</t>
   </si>
@@ -1116,6 +1116,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>聖水</t>
+    <rPh sb="0" eb="2">
+      <t>セイスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス回復</t>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.recovery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target": "hp", "percent": false, "value": 0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神の加護を得る</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草</t>
+    <rPh sb="0" eb="2">
+      <t>ドクケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒を無効化する</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草X</t>
+    <rPh sb="0" eb="2">
+      <t>ドクケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,6 +1195,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>assets/item/20013.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20014.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アイテム種別</t>
     <rPh sb="4" eb="6">
       <t>シュベツ</t>
@@ -1163,6 +1239,18 @@
     <rPh sb="0" eb="3">
       <t>ショウモウヒン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.recovery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target": "hp", "percent": false, "value": 0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20015.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1173,7 +1261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1227,6 +1315,13 @@
       <color theme="1"/>
       <name val="Hiragino Kaku Gothic Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic Pro"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5296,7 +5391,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5319,6 +5414,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3989">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -9645,8 +9741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10253,10 +10349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10367,7 +10463,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -10375,7 +10471,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -10436,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>70</v>
@@ -10459,7 +10555,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>245</v>
@@ -10482,7 +10578,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>245</v>
@@ -10505,7 +10601,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>245</v>
@@ -10528,7 +10624,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>245</v>
@@ -10551,7 +10647,7 @@
         <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>245</v>
@@ -10574,7 +10670,7 @@
         <v>124</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>245</v>
@@ -10597,7 +10693,7 @@
         <v>126</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>245</v>
@@ -10620,7 +10716,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>245</v>
@@ -10643,7 +10739,7 @@
         <v>130</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>246</v>
@@ -10664,7 +10760,7 @@
         <v>131</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>247</v>
@@ -10685,7 +10781,7 @@
         <v>133</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>248</v>
@@ -10704,7 +10800,7 @@
         <v>134</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>249</v>
@@ -10715,6 +10811,75 @@
       </c>
       <c r="G29" s="17" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>20013</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>20014</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>20015</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -557,16 +557,10 @@
     <t>HP + 30</t>
   </si>
   <si>
-    <t>ポーションA</t>
-  </si>
-  <si>
     <t>HP + 100</t>
   </si>
   <si>
     <t>最大HPの70%分が回復</t>
-  </si>
-  <si>
-    <t>ポーションXXX</t>
   </si>
   <si>
     <t>HPが最大HPまで回復</t>
@@ -1251,6 +1245,14 @@
   </si>
   <si>
     <t>assets/item/20015.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションXX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9787,10 +9789,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9815,7 +9817,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9896,15 +9898,15 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -9947,7 +9949,7 @@
         <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>88</v>
@@ -9968,7 +9970,7 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -9987,7 +9989,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -10006,7 +10008,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -10025,7 +10027,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -10044,7 +10046,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -10063,7 +10065,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -10082,7 +10084,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -10101,7 +10103,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -10120,7 +10122,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -10139,7 +10141,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -10158,7 +10160,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -10177,7 +10179,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -10196,7 +10198,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G31" s="17"/>
     </row>
@@ -10215,7 +10217,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>105</v>
@@ -10236,7 +10238,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -10255,7 +10257,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -10274,7 +10276,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -10293,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -10312,7 +10314,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -10331,7 +10333,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G38" s="17"/>
     </row>
@@ -10352,7 +10354,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10396,10 +10398,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10424,12 +10426,12 @@
         <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -10463,7 +10465,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -10471,7 +10473,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -10507,15 +10509,15 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -10532,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>70</v>
@@ -10541,7 +10543,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>88</v>
@@ -10555,16 +10557,16 @@
         <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>116</v>
@@ -10575,22 +10577,22 @@
         <v>20002</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10598,22 +10600,22 @@
         <v>20003</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10621,22 +10623,22 @@
         <v>20004</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10644,22 +10646,22 @@
         <v>20005</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10667,22 +10669,22 @@
         <v>20006</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10690,22 +10692,22 @@
         <v>20007</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10713,22 +10715,22 @@
         <v>20008</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10736,20 +10738,20 @@
         <v>20009</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10757,20 +10759,20 @@
         <v>20010</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10778,17 +10780,17 @@
         <v>20011</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -10797,20 +10799,20 @@
         <v>20012</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10818,22 +10820,22 @@
         <v>20013</v>
       </c>
       <c r="B30" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="F30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10841,22 +10843,22 @@
         <v>20014</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10864,22 +10866,22 @@
         <v>20015</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>276</v>
-      </c>
       <c r="G32" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -10914,7 +10916,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10930,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10948,7 +10950,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10963,12 +10965,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10986,7 +10988,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -11009,7 +11011,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11033,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11041,7 +11043,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11049,7 +11051,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11057,7 +11059,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11065,7 +11067,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11073,7 +11075,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11081,7 +11083,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11089,7 +11091,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11150,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11158,7 +11160,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11168,7 +11170,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11183,12 +11185,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -11198,7 +11200,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -11229,12 +11231,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -11245,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11253,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11261,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11269,7 +11271,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11277,7 +11279,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11285,7 +11287,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -11330,7 +11332,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11343,10 +11345,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11364,7 +11366,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -11379,12 +11381,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11394,13 +11396,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -11410,7 +11412,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11428,13 +11430,13 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -11444,13 +11446,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11482,12 +11484,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11496,10 +11498,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11507,7 +11509,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11516,7 +11518,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -11528,7 +11530,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11537,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -11548,7 +11550,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11557,7 +11559,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -11568,7 +11570,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11577,7 +11579,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
@@ -11634,7 +11636,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11647,10 +11649,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11658,7 +11660,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11668,7 +11670,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11683,12 +11685,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11698,7 +11700,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11714,7 +11716,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11732,29 +11734,29 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11764,7 +11766,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11786,12 +11788,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11800,10 +11802,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11811,7 +11813,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11820,7 +11822,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -11831,7 +11833,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11840,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -11851,7 +11853,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11860,7 +11862,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -11871,7 +11873,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11880,7 +11882,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -12031,7 +12033,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -12047,7 +12049,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -12055,7 +12057,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -12063,7 +12065,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -12076,7 +12078,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="275">
   <si>
     <t>名前</t>
   </si>
@@ -1168,16 +1168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毒消し草X</t>
-    <rPh sb="0" eb="2">
-      <t>ドクケ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1241,10 +1231,6 @@
   </si>
   <si>
     <t>{"target": "hp", "percent": false, "value": 0}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>assets/item/20015.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10351,10 +10337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10465,7 +10451,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -10473,7 +10459,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -10534,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>70</v>
@@ -10557,7 +10543,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>243</v>
@@ -10577,10 +10563,10 @@
         <v>20002</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>243</v>
@@ -10603,7 +10589,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>243</v>
@@ -10623,10 +10609,10 @@
         <v>20004</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>243</v>
@@ -10649,7 +10635,7 @@
         <v>120</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>243</v>
@@ -10672,7 +10658,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>243</v>
@@ -10695,7 +10681,7 @@
         <v>124</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>243</v>
@@ -10718,7 +10704,7 @@
         <v>126</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>243</v>
@@ -10741,7 +10727,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>244</v>
@@ -10762,7 +10748,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>245</v>
@@ -10783,7 +10769,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>246</v>
@@ -10802,7 +10788,7 @@
         <v>132</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>247</v>
@@ -10832,7 +10818,7 @@
         <v>256</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>257</v>
@@ -10849,38 +10835,15 @@
         <v>259</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="F31" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>20015</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G32" s="17" t="s">
         <v>260</v>
       </c>
     </row>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1158,6 +1158,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>StatusRubyStoredScript.recovery_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"status_cd":"1001"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>毒を無効化する</t>
     <rPh sb="0" eb="1">
       <t>ドク</t>
@@ -1223,14 +1231,6 @@
     <rPh sb="0" eb="3">
       <t>ショウモウヒン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemRubyStoredScript.recovery</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"target": "hp", "percent": false, "value": 0}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1388,8 +1388,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3989">
+  <cellStyleXfs count="3991">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5404,7 +5406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3989">
+  <cellStyles count="3991">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7399,6 +7401,7 @@
     <cellStyle name="ハイパーリンク" xfId="3983" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3985" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3987" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3989" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9394,6 +9397,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3984" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3986" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3988" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3990" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9729,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10339,8 +10343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10451,7 +10455,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -10459,7 +10463,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -10520,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>70</v>
@@ -10543,7 +10547,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>243</v>
@@ -10566,7 +10570,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>243</v>
@@ -10589,7 +10593,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>243</v>
@@ -10612,7 +10616,7 @@
         <v>274</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>243</v>
@@ -10635,7 +10639,7 @@
         <v>120</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>243</v>
@@ -10658,7 +10662,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>243</v>
@@ -10681,7 +10685,7 @@
         <v>124</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>243</v>
@@ -10704,7 +10708,7 @@
         <v>126</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>243</v>
@@ -10727,7 +10731,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>244</v>
@@ -10748,7 +10752,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>245</v>
@@ -10769,7 +10773,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>246</v>
@@ -10788,7 +10792,7 @@
         <v>132</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>247</v>
@@ -10818,7 +10822,7 @@
         <v>256</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>257</v>
@@ -10835,16 +10839,16 @@
         <v>259</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="1"/>
+    <workbookView xWindow="25540" yWindow="3640" windowWidth="25600" windowHeight="16060" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
   <si>
     <t>名前</t>
   </si>
@@ -1113,6 +1113,32 @@
     <rPh sb="0" eb="2">
       <t>カノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真偽値</t>
+    <rPh sb="0" eb="3">
+      <t>シンギチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪い</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damned</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1255,8 +1281,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3975">
+  <cellStyleXfs count="3977">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5256,7 +5284,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3975">
+  <cellStyles count="3977">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7244,6 +7272,7 @@
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3975" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9232,6 +9261,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3976" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9565,10 +9595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9745,274 +9775,287 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="H19" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
         <v>10001</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>2</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="17">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="17">
+        <v>40</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
         <v>10008</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="17">
-        <v>2</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>10009</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>56</v>
@@ -10022,144 +10065,176 @@
         <v>24</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>225</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="17">
+        <v>5</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>10020</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="17">
         <v>10</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10177,8 +10252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25540" yWindow="3640" windowWidth="25600" windowHeight="16060" tabRatio="910"/>
+    <workbookView xWindow="22360" yWindow="0" windowWidth="25600" windowHeight="19900" tabRatio="910"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -9598,7 +9598,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9837,7 +9837,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
@@ -9857,7 +9857,7 @@
         <v>92</v>
       </c>
       <c r="D21" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
@@ -9877,7 +9877,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
@@ -9897,7 +9897,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
@@ -9917,7 +9917,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
@@ -9937,7 +9937,7 @@
         <v>92</v>
       </c>
       <c r="D25" s="17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
@@ -9957,7 +9957,7 @@
         <v>92</v>
       </c>
       <c r="D26" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="0" windowWidth="25600" windowHeight="19900" tabRatio="910"/>
+    <workbookView xWindow="13000" yWindow="0" windowWidth="25600" windowHeight="19900" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="264">
   <si>
     <t>名前</t>
   </si>
@@ -1139,6 +1139,25 @@
   </si>
   <si>
     <t>damned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.hustle_3days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20013.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日くらい寝なくても平気な薬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEVEL E参照</t>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1281,7 +1300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3977">
+  <cellStyleXfs count="3983">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5259,8 +5278,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5283,8 +5308,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3977">
+  <cellStyles count="3983">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7273,6 +7299,9 @@
     <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3975" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3977" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3979" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3981" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9262,6 +9291,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3976" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3978" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3980" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3982" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9597,7 +9629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -10250,10 +10282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10659,6 +10691,24 @@
       </c>
       <c r="F28" s="17" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>20013</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
